--- a/raw_data/KEEN ONE/Byrnes/2018/NE Appledore/NE Appledore_Kelp_2018.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2018/NE Appledore/NE Appledore_Kelp_2018.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Dropbox (Byrnes Lab)/Byrnes Lab Shared Folder/KEEN Gulf of Maine Subtidal Transects/KEEN GOM Subtidal Monitoring/Data/Verified Data/2018/NE Appledore/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D00B1F4-ABEE-9C4A-822F-C0283AE08619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="10420" yWindow="460" windowWidth="25600" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
     <sheet name="Allowed Codes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -147,13 +153,13 @@
     <t>Devils Dance Floor</t>
   </si>
   <si>
-    <t>Norwegian</t>
+    <t>Norwegian Cove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -293,6 +299,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -617,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -641,7 +655,7 @@
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -727,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -768,7 +782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -809,7 +823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -850,7 +864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -891,7 +905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -932,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -973,7 +987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1055,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -1137,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1219,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -1260,7 +1274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1342,7 +1356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1424,7 +1438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1465,7 +1479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1506,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1547,7 +1561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1588,7 +1602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1629,7 +1643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1670,7 +1684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1711,7 +1725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1752,7 +1766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -1834,7 +1848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -1998,7 +2012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2080,7 +2094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2162,7 +2176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2203,7 +2217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2244,7 +2258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2285,7 +2299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2326,7 +2340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2367,7 +2381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2408,7 +2422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2449,7 +2463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2490,7 +2504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2537,7 +2551,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Allowed Codes'!$A:$A</xm:f>
           </x14:formula1>
@@ -2553,16 +2567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
         <v>14</v>
@@ -2570,7 +2584,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2594,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -2590,7 +2604,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -2600,7 +2614,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
